--- a/Data/OlympicTestdata.xlsx
+++ b/Data/OlympicTestdata.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sikuli Workspace\sikuliproject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36308700-8755-47DF-99D6-EC86A2AFE76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3809304-172D-4B9E-A132-AA40785F6B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="AgentDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -91,12 +92,31 @@
   </si>
   <si>
     <t>Grey T-Shirt</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Algeria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,15 +430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625"/>
+    <col min="4" max="4" customWidth="true" width="15.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -440,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -517,6 +537,41 @@
       </c>
       <c r="D7" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA47B61-2CB6-4602-A9FA-B5FDC9A19E33}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
